--- a/Documents/F150_BLE_custom_service_and_characteristics_v7.3_12May2022.xlsx
+++ b/Documents/F150_BLE_custom_service_and_characteristics_v7.3_12May2022.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\220209_btle_while_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\FenomPlus.Mobile\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDCC9B5-E5EA-4FB6-9AB6-E9A76684F9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7516B166-BE81-4F3D-B0DF-A05B2724F4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9484B926-E08E-4F88-9B78-A07F4B16E1DE}"/>
+    <workbookView xWindow="-732" yWindow="480" windowWidth="23304" windowHeight="11232" xr2:uid="{9484B926-E08E-4F88-9B78-A07F4B16E1DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="162">
   <si>
     <t>CHANGE LOG</t>
   </si>
@@ -524,6 +525,24 @@
   </si>
   <si>
     <t xml:space="preserve">2. replace battery with the serial number(10 bytes) in Device info </t>
+  </si>
+  <si>
+    <t>0x0D</t>
+  </si>
+  <si>
+    <t>Flow Unsteady [2.5; 3.5 -&gt;2.7;3.3]</t>
+  </si>
+  <si>
+    <t>No Score Detected</t>
+  </si>
+  <si>
+    <t>0x0E</t>
+  </si>
+  <si>
+    <t>0x10</t>
+  </si>
+  <si>
+    <t>Breath detected after t2</t>
   </si>
 </sst>
 </file>
@@ -766,7 +785,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -853,16 +872,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -878,16 +899,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1204,29 +1227,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E32FC63-FE87-4A1B-9985-F4C8247D01C8}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+    <sheetView tabSelected="1" topLeftCell="E34" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34:M50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="52.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="52.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="66.140625" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="66.109375" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>151</v>
       </c>
@@ -1234,20 +1257,20 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>133</v>
       </c>
@@ -1258,7 +1281,7 @@
       <c r="D4" s="42"/>
       <c r="E4" s="42"/>
     </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
@@ -1266,7 +1289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1274,7 +1297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1282,7 +1305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1290,7 +1313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1298,7 +1321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1306,7 +1329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1314,7 +1337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
@@ -1325,7 +1348,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="10" t="s">
         <v>16</v>
@@ -1343,12 +1366,12 @@
         <v>20</v>
       </c>
       <c r="G14" s="21"/>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="46"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14" s="61"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
@@ -1373,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="5" t="s">
         <v>27</v>
@@ -1398,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="5"/>
       <c r="C17" s="4">
@@ -1421,7 +1444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="5"/>
       <c r="C18" s="4">
@@ -1444,7 +1467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="5"/>
       <c r="C19" s="4">
@@ -1467,7 +1490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="5"/>
       <c r="C20" s="4">
@@ -1490,7 +1513,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="5"/>
       <c r="C21" s="4">
@@ -1509,11 +1532,11 @@
       <c r="I21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J21" s="47">
+      <c r="J21" s="62">
         <v>2099</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="5"/>
       <c r="C22" s="4">
@@ -1532,9 +1555,9 @@
       <c r="I22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="47"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J22" s="62"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="6"/>
       <c r="C23" s="3" t="s">
@@ -1543,7 +1566,7 @@
       <c r="D23" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="46" t="s">
         <v>154</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -1557,7 +1580,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
@@ -1566,7 +1589,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="21"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="44" t="s">
         <v>45</v>
@@ -1584,12 +1607,12 @@
         <v>20</v>
       </c>
       <c r="G25" s="21"/>
-      <c r="I25" s="46" t="s">
+      <c r="I25" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="46"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J25" s="61"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="2" t="s">
         <v>22</v>
@@ -1614,7 +1637,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="2" t="s">
         <v>50</v>
@@ -1639,7 +1662,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3">
@@ -1662,7 +1685,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="41"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3">
@@ -1681,7 +1704,7 @@
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
@@ -1690,7 +1713,7 @@
       <c r="F30" s="18"/>
       <c r="G30" s="21"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="10" t="s">
         <v>59</v>
@@ -1709,7 +1732,7 @@
       </c>
       <c r="G31" s="21"/>
     </row>
-    <row r="32" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="18"/>
       <c r="B32" s="30" t="s">
         <v>60</v>
@@ -1731,7 +1754,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="18"/>
       <c r="B33" s="2" t="s">
         <v>64</v>
@@ -1742,7 +1765,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="21"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
@@ -1754,7 +1777,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
       <c r="B35" s="10" t="s">
         <v>66</v>
@@ -1772,10 +1795,10 @@
         <v>20</v>
       </c>
       <c r="G35" s="21"/>
-      <c r="I35" s="46" t="s">
+      <c r="I35" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="J35" s="46"/>
+      <c r="J35" s="61"/>
       <c r="L35" s="3" t="s">
         <v>30</v>
       </c>
@@ -1783,7 +1806,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="18"/>
       <c r="B36" s="5" t="s">
         <v>22</v>
@@ -1794,10 +1817,10 @@
       <c r="D36" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="50" t="s">
+      <c r="F36" s="59" t="s">
         <v>25</v>
       </c>
       <c r="G36" s="21"/>
@@ -1814,7 +1837,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
       <c r="B37" s="5" t="s">
         <v>72</v>
@@ -1825,8 +1848,8 @@
       <c r="D37" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="51"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="60"/>
       <c r="G37" s="21"/>
       <c r="I37" s="2" t="s">
         <v>74</v>
@@ -1842,7 +1865,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="18"/>
       <c r="B38" s="5"/>
       <c r="C38" s="4">
@@ -1874,7 +1897,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="18"/>
       <c r="B39" s="5"/>
       <c r="C39" s="4">
@@ -1906,7 +1929,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="18"/>
       <c r="B40" s="5"/>
       <c r="C40" s="4">
@@ -1938,7 +1961,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="18"/>
       <c r="B41" s="5"/>
       <c r="C41" s="4">
@@ -1970,7 +1993,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="18"/>
       <c r="B42" s="5"/>
       <c r="C42" s="4">
@@ -1982,7 +2005,7 @@
       <c r="E42" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="F42" s="50" t="s">
+      <c r="F42" s="59" t="s">
         <v>99</v>
       </c>
       <c r="G42" s="21"/>
@@ -1999,7 +2022,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="18"/>
       <c r="B43" s="5"/>
       <c r="C43" s="4">
@@ -2009,7 +2032,7 @@
         <v>102</v>
       </c>
       <c r="E43" s="58"/>
-      <c r="F43" s="51"/>
+      <c r="F43" s="60"/>
       <c r="G43" s="21"/>
       <c r="I43" s="2" t="s">
         <v>103</v>
@@ -2022,7 +2045,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="18"/>
       <c r="B44" s="5"/>
       <c r="C44" s="4">
@@ -2051,7 +2074,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="18"/>
       <c r="B45" s="5"/>
       <c r="C45" s="4">
@@ -2080,7 +2103,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="18"/>
       <c r="B46" s="5"/>
       <c r="C46" s="32">
@@ -2109,7 +2132,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
       <c r="B47" s="5"/>
       <c r="C47" s="32">
@@ -2138,7 +2161,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="18"/>
       <c r="B48" s="5"/>
       <c r="C48" s="32">
@@ -2156,9 +2179,14 @@
         <v>122</v>
       </c>
       <c r="J48" s="56"/>
-      <c r="L48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="L48" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M48" s="47" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="18"/>
       <c r="B49" s="6"/>
       <c r="C49" s="32">
@@ -2180,8 +2208,14 @@
       <c r="J49" s="36">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L49" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="M49" s="47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="19"/>
@@ -2189,8 +2223,14 @@
       <c r="E50" s="18"/>
       <c r="F50" s="18"/>
       <c r="G50" s="21"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L50" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="M50" s="47" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="18"/>
       <c r="B51" s="10" t="s">
         <v>126</v>
@@ -2209,7 +2249,7 @@
       </c>
       <c r="G51" s="21"/>
     </row>
-    <row r="52" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A52" s="18"/>
       <c r="B52" s="31" t="s">
         <v>127</v>
@@ -2231,7 +2271,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="C53" s="26"/>
@@ -2240,7 +2280,7 @@
       <c r="F53" s="25"/>
       <c r="G53" s="27"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
         <v>141</v>
@@ -2255,7 +2295,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="36">
         <v>1</v>
       </c>
@@ -2276,7 +2316,7 @@
       </c>
       <c r="G56" s="53"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="36">
         <v>2</v>
       </c>
